--- a/Top 10 Queens Neighborhoods Confirmed COVID Deaths.xlsx
+++ b/Top 10 Queens Neighborhoods Confirmed COVID Deaths.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opnyc\Desktop\NYU MSPP\Policy and Data Studio\COVID-Analysis-Queens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{75F6A91B-C4B9-4C34-91C2-A829B5A02F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5822BBCF-56C4-4EF0-8C22-A65E7CDD51F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020"/>
+    <workbookView xWindow="13810" yWindow="4270" windowWidth="19200" windowHeight="10060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Top 10 Queens Neighborhoods Con" sheetId="1" r:id="rId1"/>
+    <sheet name="Tables" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="31">
   <si>
     <t>MODIFIED_ZCTA</t>
   </si>
@@ -118,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -656,6 +657,1123 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Top</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 10 Neighborhoods in Queens: COVID-19 Death Count</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
+              <a:t>Source: NYC Department of Health COVID-19 data as of July 8, 2022 </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tables!$B$2:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Airport/South Jamaica/Springfield Gardens/St. Albans</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Forest Hills</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Woodside</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jackson Heights</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Hillcrest/Jamaica Estates/Jamaica Hills</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Flushing/Murray Hill/Queensboro Hill</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Elmhurst</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Flushing/Murray Hill</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Edgemere/Far Rockaway</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Corona/North Corona</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$M$2:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-59C1-4ED1-9F8F-A5087A0BB746}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1268031887"/>
+        <c:axId val="1268035215"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1268031887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Neighborhood(s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1268035215"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1268035215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Confirmed</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> COVID Deaths</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1268031887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>936624</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1778000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A37A403-06DD-C14A-F926-2C874DA56513}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -952,11 +2070,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1668,4 +2786,727 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E64E0C2-E38F-4B39-A122-FC14C64C429A}">
+  <dimension ref="A1:T11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="30.08984375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="28.36328125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="18.54296875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="28.26953125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7265625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="18.453125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="31.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>11434</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>11434</v>
+      </c>
+      <c r="E2">
+        <v>40.656866000000001</v>
+      </c>
+      <c r="F2">
+        <v>-73.783385999999993</v>
+      </c>
+      <c r="G2">
+        <v>15833</v>
+      </c>
+      <c r="H2">
+        <v>2901</v>
+      </c>
+      <c r="I2">
+        <v>18734</v>
+      </c>
+      <c r="J2">
+        <v>23715.1</v>
+      </c>
+      <c r="K2">
+        <v>28060.3</v>
+      </c>
+      <c r="L2">
+        <v>66763.37</v>
+      </c>
+      <c r="M2">
+        <v>327</v>
+      </c>
+      <c r="N2">
+        <v>50</v>
+      </c>
+      <c r="O2">
+        <v>377</v>
+      </c>
+      <c r="P2">
+        <v>489.79</v>
+      </c>
+      <c r="Q2">
+        <v>564.67999999999995</v>
+      </c>
+      <c r="R2">
+        <v>23.8</v>
+      </c>
+      <c r="S2">
+        <v>63874</v>
+      </c>
+      <c r="T2">
+        <v>15202.012000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>11375</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>11375</v>
+      </c>
+      <c r="E3">
+        <v>40.720931</v>
+      </c>
+      <c r="F3">
+        <v>-73.846183999999994</v>
+      </c>
+      <c r="G3">
+        <v>16339</v>
+      </c>
+      <c r="H3">
+        <v>2666</v>
+      </c>
+      <c r="I3">
+        <v>19005</v>
+      </c>
+      <c r="J3">
+        <v>22926.62</v>
+      </c>
+      <c r="K3">
+        <v>26667.5</v>
+      </c>
+      <c r="L3">
+        <v>71266.52</v>
+      </c>
+      <c r="M3">
+        <v>344</v>
+      </c>
+      <c r="N3">
+        <v>32</v>
+      </c>
+      <c r="O3">
+        <v>376</v>
+      </c>
+      <c r="P3">
+        <v>482.7</v>
+      </c>
+      <c r="Q3">
+        <v>527.6</v>
+      </c>
+      <c r="R3">
+        <v>23.34</v>
+      </c>
+      <c r="S3">
+        <v>66842</v>
+      </c>
+      <c r="T3">
+        <v>15600.9228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>11377</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>11377</v>
+      </c>
+      <c r="E4">
+        <v>40.744822999999997</v>
+      </c>
+      <c r="F4">
+        <v>-73.905159999999995</v>
+      </c>
+      <c r="G4">
+        <v>24528</v>
+      </c>
+      <c r="H4">
+        <v>4160</v>
+      </c>
+      <c r="I4">
+        <v>28688</v>
+      </c>
+      <c r="J4">
+        <v>29183.29</v>
+      </c>
+      <c r="K4">
+        <v>34132.83</v>
+      </c>
+      <c r="L4">
+        <v>84048.11</v>
+      </c>
+      <c r="M4">
+        <v>350</v>
+      </c>
+      <c r="N4">
+        <v>64</v>
+      </c>
+      <c r="O4">
+        <v>414</v>
+      </c>
+      <c r="P4">
+        <v>416.43</v>
+      </c>
+      <c r="Q4">
+        <v>492.58</v>
+      </c>
+      <c r="R4">
+        <v>25.46</v>
+      </c>
+      <c r="S4">
+        <v>92289</v>
+      </c>
+      <c r="T4">
+        <v>23496.779399999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>11372</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>11372</v>
+      </c>
+      <c r="E5">
+        <v>40.751690000000004</v>
+      </c>
+      <c r="F5">
+        <v>-73.883634000000001</v>
+      </c>
+      <c r="G5">
+        <v>17810</v>
+      </c>
+      <c r="H5">
+        <v>3077</v>
+      </c>
+      <c r="I5">
+        <v>20887</v>
+      </c>
+      <c r="J5">
+        <v>29349.38</v>
+      </c>
+      <c r="K5">
+        <v>34420.01</v>
+      </c>
+      <c r="L5">
+        <v>60682.720000000001</v>
+      </c>
+      <c r="M5">
+        <v>382</v>
+      </c>
+      <c r="N5">
+        <v>48</v>
+      </c>
+      <c r="O5">
+        <v>430</v>
+      </c>
+      <c r="P5">
+        <v>629.5</v>
+      </c>
+      <c r="Q5">
+        <v>708.6</v>
+      </c>
+      <c r="R5">
+        <v>24.14</v>
+      </c>
+      <c r="S5">
+        <v>70206</v>
+      </c>
+      <c r="T5">
+        <v>16947.7284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>11432</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>11432</v>
+      </c>
+      <c r="E6">
+        <v>40.715358999999999</v>
+      </c>
+      <c r="F6">
+        <v>-73.793064000000001</v>
+      </c>
+      <c r="G6">
+        <v>15334</v>
+      </c>
+      <c r="H6">
+        <v>2428</v>
+      </c>
+      <c r="I6">
+        <v>17762</v>
+      </c>
+      <c r="J6">
+        <v>25239.200000000001</v>
+      </c>
+      <c r="K6">
+        <v>29235.59</v>
+      </c>
+      <c r="L6">
+        <v>60754.71</v>
+      </c>
+      <c r="M6">
+        <v>382</v>
+      </c>
+      <c r="N6">
+        <v>64</v>
+      </c>
+      <c r="O6">
+        <v>446</v>
+      </c>
+      <c r="P6">
+        <v>628.76</v>
+      </c>
+      <c r="Q6">
+        <v>734.1</v>
+      </c>
+      <c r="R6">
+        <v>23.02</v>
+      </c>
+      <c r="S6">
+        <v>63989</v>
+      </c>
+      <c r="T6">
+        <v>14730.2678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>11355</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>11355</v>
+      </c>
+      <c r="E7">
+        <v>40.751458999999997</v>
+      </c>
+      <c r="F7">
+        <v>-73.821014000000005</v>
+      </c>
+      <c r="G7">
+        <v>20372</v>
+      </c>
+      <c r="H7">
+        <v>3210</v>
+      </c>
+      <c r="I7">
+        <v>23582</v>
+      </c>
+      <c r="J7">
+        <v>25835.45</v>
+      </c>
+      <c r="K7">
+        <v>29906.32</v>
+      </c>
+      <c r="L7">
+        <v>78852.89</v>
+      </c>
+      <c r="M7">
+        <v>399</v>
+      </c>
+      <c r="N7">
+        <v>64</v>
+      </c>
+      <c r="O7">
+        <v>463</v>
+      </c>
+      <c r="P7">
+        <v>506.01</v>
+      </c>
+      <c r="Q7">
+        <v>587.16999999999996</v>
+      </c>
+      <c r="R7">
+        <v>25.01</v>
+      </c>
+      <c r="S7">
+        <v>78751</v>
+      </c>
+      <c r="T7">
+        <v>19695.625100000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>11373</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>11373</v>
+      </c>
+      <c r="E8">
+        <v>40.738822999999996</v>
+      </c>
+      <c r="F8">
+        <v>-73.878500000000003</v>
+      </c>
+      <c r="G8">
+        <v>26873</v>
+      </c>
+      <c r="H8">
+        <v>4137</v>
+      </c>
+      <c r="I8">
+        <v>31010</v>
+      </c>
+      <c r="J8">
+        <v>29319.51</v>
+      </c>
+      <c r="K8">
+        <v>33833.14</v>
+      </c>
+      <c r="L8">
+        <v>91655.7</v>
+      </c>
+      <c r="M8">
+        <v>411</v>
+      </c>
+      <c r="N8">
+        <v>73</v>
+      </c>
+      <c r="O8">
+        <v>484</v>
+      </c>
+      <c r="P8">
+        <v>448.42</v>
+      </c>
+      <c r="Q8">
+        <v>528.05999999999995</v>
+      </c>
+      <c r="R8">
+        <v>25.11</v>
+      </c>
+      <c r="S8">
+        <v>102449</v>
+      </c>
+      <c r="T8">
+        <v>25724.943899999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>11354</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>11354</v>
+      </c>
+      <c r="E9">
+        <v>40.768630000000002</v>
+      </c>
+      <c r="F9">
+        <v>-73.827229000000003</v>
+      </c>
+      <c r="G9">
+        <v>12865</v>
+      </c>
+      <c r="H9">
+        <v>2331</v>
+      </c>
+      <c r="I9">
+        <v>15196</v>
+      </c>
+      <c r="J9">
+        <v>23859.93</v>
+      </c>
+      <c r="K9">
+        <v>28183.1</v>
+      </c>
+      <c r="L9">
+        <v>53918.85</v>
+      </c>
+      <c r="M9">
+        <v>486</v>
+      </c>
+      <c r="N9">
+        <v>50</v>
+      </c>
+      <c r="O9">
+        <v>536</v>
+      </c>
+      <c r="P9">
+        <v>901.35</v>
+      </c>
+      <c r="Q9">
+        <v>994.09</v>
+      </c>
+      <c r="R9">
+        <v>23.17</v>
+      </c>
+      <c r="S9">
+        <v>54363</v>
+      </c>
+      <c r="T9">
+        <v>12595.9071</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>11691</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>11691</v>
+      </c>
+      <c r="E10">
+        <v>40.601329999999997</v>
+      </c>
+      <c r="F10">
+        <v>-73.761357000000004</v>
+      </c>
+      <c r="G10">
+        <v>18843</v>
+      </c>
+      <c r="H10">
+        <v>1805</v>
+      </c>
+      <c r="I10">
+        <v>20648</v>
+      </c>
+      <c r="J10">
+        <v>28184.33</v>
+      </c>
+      <c r="K10">
+        <v>30884.15</v>
+      </c>
+      <c r="L10">
+        <v>66856.31</v>
+      </c>
+      <c r="M10">
+        <v>541</v>
+      </c>
+      <c r="N10">
+        <v>79</v>
+      </c>
+      <c r="O10">
+        <v>620</v>
+      </c>
+      <c r="P10">
+        <v>809.2</v>
+      </c>
+      <c r="Q10">
+        <v>927.36</v>
+      </c>
+      <c r="R10">
+        <v>26.82</v>
+      </c>
+      <c r="S10">
+        <v>67905</v>
+      </c>
+      <c r="T10">
+        <v>18212.120999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>11368</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>11368</v>
+      </c>
+      <c r="E11">
+        <v>40.749594000000002</v>
+      </c>
+      <c r="F11">
+        <v>-73.852603999999999</v>
+      </c>
+      <c r="G11">
+        <v>28895</v>
+      </c>
+      <c r="H11">
+        <v>4281</v>
+      </c>
+      <c r="I11">
+        <v>33176</v>
+      </c>
+      <c r="J11">
+        <v>26180.17</v>
+      </c>
+      <c r="K11">
+        <v>30058.95</v>
+      </c>
+      <c r="L11">
+        <v>110369.78</v>
+      </c>
+      <c r="M11">
+        <v>585</v>
+      </c>
+      <c r="N11">
+        <v>65</v>
+      </c>
+      <c r="O11">
+        <v>650</v>
+      </c>
+      <c r="P11">
+        <v>530.04</v>
+      </c>
+      <c r="Q11">
+        <v>588.92999999999995</v>
+      </c>
+      <c r="R11">
+        <v>23.42</v>
+      </c>
+      <c r="S11">
+        <v>118382</v>
+      </c>
+      <c r="T11">
+        <v>27725.064399999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T11">
+    <sortCondition ref="M2:M11"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Top 10 Queens Neighborhoods Confirmed COVID Deaths.xlsx
+++ b/Top 10 Queens Neighborhoods Confirmed COVID Deaths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opnyc\Desktop\NYU MSPP\Policy and Data Studio\COVID-Analysis-Queens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5822BBCF-56C4-4EF0-8C22-A65E7CDD51F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A227BFC-D4DF-4A43-ABC0-D78AA9F3B658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13810" yWindow="4270" windowWidth="19200" windowHeight="10060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Top 10 Queens Neighborhoods Con" sheetId="1" r:id="rId1"/>
@@ -775,7 +775,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
